--- a/15_WBSガントチャート.xlsx
+++ b/15_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{45E24956-36AD-47ED-A812-5F1C35FE6E23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9A9940-4C64-4BE7-B40E-5C7CFA8196A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,6 +1512,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1521,214 +1557,164 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2317,11 +2303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="111" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="87" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2340,120 +2326,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="78">
         <v>43984</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43985</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43986</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="111">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
         <v>43987</v>
       </c>
-      <c r="S1" s="112"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="113" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="116" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="114"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2480,15 +2466,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2496,19 +2482,19 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f>SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="M5" s="27">
         <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
-        <v>14.75</v>
+        <v>17.5</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>18.25</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
@@ -2532,13 +2518,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2582,15 +2568,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2598,15 +2584,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="2"/>
@@ -2634,13 +2620,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2684,16 +2670,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2712,12 +2698,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2736,17 +2722,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2773,12 +2759,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2800,17 +2786,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2837,12 +2823,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2864,16 +2850,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2892,12 +2878,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2916,17 +2902,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2939,13 +2925,13 @@
       </c>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
-        <v>2.5</v>
-      </c>
-      <c r="L17" s="30">
-        <f>1.25+1.25</f>
-        <v>2.5</v>
-      </c>
-      <c r="M17" s="31"/>
+        <v>1.75</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30">
+        <f>1.75</f>
+        <v>1.75</v>
+      </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
@@ -2954,12 +2940,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -2981,17 +2967,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3006,11 +2992,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33">
         <f>0.5*2</f>
         <v>1</v>
       </c>
-      <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
@@ -3019,12 +3005,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3046,17 +3032,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3068,14 +3054,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="4"/>
+        <f>SUM(M21:S21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="33">
+      <c r="M21" s="33">
         <f>0.5*2</f>
         <v>1</v>
       </c>
-      <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
@@ -3084,12 +3069,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3111,15 +3096,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3127,19 +3112,19 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="L23" s="34">
         <f t="shared" ref="L23:Q23" si="5">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M23" s="35">
         <f t="shared" si="5"/>
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="N23" s="35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O23" s="35">
         <f t="shared" si="5"/>
@@ -3163,13 +3148,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3213,16 +3198,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3241,12 +3226,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3265,17 +3250,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3287,14 +3272,13 @@
         <v>3</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" ref="K27:K34" si="8">SUM(L27:S27)</f>
+        <f>SUM(M27:S27)</f>
         <v>2.25</v>
       </c>
-      <c r="L27" s="30">
+      <c r="M27" s="30">
         <f>0.75*3</f>
         <v>2.25</v>
       </c>
-      <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
@@ -3303,12 +3287,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3317,7 +3301,7 @@
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K27:K34" si="8">SUM(L28:S28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="48"/>
@@ -3330,17 +3314,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3352,14 +3336,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(M29:S29)</f>
         <v>1.5</v>
       </c>
-      <c r="L29" s="30">
+      <c r="M29" s="30">
         <f>0.75*2</f>
         <v>1.5</v>
       </c>
-      <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
@@ -3368,12 +3351,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3395,17 +3378,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3433,12 +3416,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3460,17 +3443,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3483,12 +3466,9 @@
       </c>
       <c r="K33" s="9">
         <f t="shared" si="8"/>
-        <v>2.25</v>
-      </c>
-      <c r="L33" s="30">
-        <f>0.25*3</f>
-        <v>0.75</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="30"/>
       <c r="M33" s="31">
         <f>0.5*3</f>
         <v>1.5</v>
@@ -3501,12 +3481,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3528,16 +3508,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55">
+      <c r="A35" s="67">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3556,12 +3536,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3580,17 +3560,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3606,11 +3586,11 @@
         <v>2.5</v>
       </c>
       <c r="L37" s="33"/>
-      <c r="M37" s="31">
+      <c r="M37" s="31"/>
+      <c r="N37" s="31">
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
@@ -3618,12 +3598,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3645,17 +3625,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3671,10 +3651,10 @@
         <v>1.25</v>
       </c>
       <c r="L39" s="33"/>
-      <c r="M39" s="31">
+      <c r="M39" s="31"/>
+      <c r="N39" s="31">
         <v>1.25</v>
       </c>
-      <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
@@ -3682,12 +3662,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3709,17 +3689,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3735,10 +3715,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="33"/>
-      <c r="M41" s="31">
+      <c r="M41" s="31"/>
+      <c r="N41" s="31">
         <v>1</v>
       </c>
-      <c r="N41" s="31"/>
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
@@ -3746,12 +3726,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3773,15 +3753,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3825,13 +3805,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3875,16 +3855,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55">
+      <c r="A45" s="67">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3903,12 +3883,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3927,17 +3907,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3965,12 +3945,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3992,17 +3972,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4033,12 +4013,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4060,16 +4040,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55">
+      <c r="A51" s="67">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4088,12 +4068,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4112,17 +4092,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4150,12 +4130,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4177,17 +4157,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4215,12 +4195,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4242,17 +4222,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4279,12 +4259,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4306,15 +4286,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4358,13 +4338,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4408,16 +4388,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55">
+      <c r="A61" s="67">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4436,12 +4416,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4460,17 +4440,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4501,12 +4481,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4528,17 +4508,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4566,12 +4546,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4593,17 +4573,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="65"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4631,12 +4611,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4658,16 +4638,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55">
+      <c r="A69" s="67">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4686,12 +4666,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4710,17 +4690,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4748,12 +4728,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4775,17 +4755,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4813,12 +4793,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4840,17 +4820,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4878,12 +4858,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4905,15 +4885,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4957,13 +4937,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="72"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5007,16 +4987,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="55">
+      <c r="A79" s="67">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5035,12 +5015,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5059,17 +5039,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5100,12 +5080,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5127,17 +5107,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="65"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5165,12 +5145,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5192,15 +5172,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5244,13 +5224,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="72"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5294,16 +5274,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="55">
+      <c r="A87" s="67">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5322,12 +5302,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5346,17 +5326,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="65"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5384,12 +5364,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5411,17 +5391,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5449,12 +5429,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5476,16 +5456,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="55">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5504,12 +5484,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5528,17 +5508,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="55"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="65"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5566,12 +5546,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5593,17 +5573,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5630,12 +5610,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5657,15 +5637,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5709,13 +5689,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5759,16 +5739,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55">
+      <c r="A101" s="67">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5787,12 +5767,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="56"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5811,17 +5791,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
-      <c r="B103" s="57" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="65"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5849,12 +5829,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5876,17 +5856,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5914,12 +5894,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="56"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5941,16 +5921,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55">
+      <c r="A107" s="67">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5969,12 +5949,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="56"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5993,17 +5973,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="57" t="s">
+      <c r="A109" s="67"/>
+      <c r="B109" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="65"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6031,12 +6011,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="56"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6058,17 +6038,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6096,12 +6076,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="56"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6138,19 +6118,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6175,332 +6420,59 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L9:S18 L25:S36 L87:S98 L101:S112">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S76">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
@@ -6559,12 +6531,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6748,6 +6714,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6757,22 +6729,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6788,4 +6744,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート.xlsx
+++ b/15_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9A9940-4C64-4BE7-B40E-5C7CFA8196A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F34C1C-75F2-4F7F-B639-C39D4370DB28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -529,16 +529,22 @@
     <t>立石</t>
   </si>
   <si>
-    <t>浅川, 川端, 立石</t>
-  </si>
-  <si>
-    <t>舟橋,三上</t>
-  </si>
-  <si>
     <t>川端,舟橋,三上</t>
   </si>
   <si>
     <t>立石,舟橋,三上</t>
+  </si>
+  <si>
+    <t>浅川,川端,立石,舟橋,三上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川, 川端, 立石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅川, 川端, </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +652,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -1354,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,12 +1518,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,7 +1566,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,31 +1581,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,6 +1611,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,125 +1730,12 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2303,11 +2310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="87" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2321,125 +2328,125 @@
     <col min="8" max="8" width="8" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="13" customWidth="1"/>
     <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="114">
         <v>43984</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="115"/>
+      <c r="N1" s="114">
         <v>43985</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="115"/>
+      <c r="P1" s="114">
         <v>43986</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="115"/>
+      <c r="R1" s="114">
         <v>43987</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="83" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="117"/>
+      <c r="R2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="117"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="121"/>
+      <c r="P3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="121"/>
+      <c r="R3" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="123"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2466,15 +2473,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2482,27 +2489,27 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f>SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>97.5</v>
+        <v>103</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="M5" s="27">
         <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
-        <v>17.5</v>
+        <v>13.75</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>18.25</v>
+        <v>13.5</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="P5" s="27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
@@ -2518,13 +2525,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2584,15 +2591,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
-        <v>7.25</v>
+        <v>17</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="2"/>
@@ -2620,12 +2627,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
@@ -2670,17 +2677,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="58">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="53"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2698,13 +2705,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="54"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2722,17 +2729,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="63"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2745,10 +2752,10 @@
       </c>
       <c r="K11" s="9">
         <f>SUM(L11:S11)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L11" s="33">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -2759,13 +2766,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -2786,17 +2793,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="63"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2809,10 +2816,10 @@
       </c>
       <c r="K13" s="9">
         <f>SUM(L13:S13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -2823,13 +2830,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="58"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -2850,17 +2857,17 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="63"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2878,13 +2885,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="54"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2902,35 +2909,36 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
       </c>
       <c r="I17" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
-        <v>1.75</v>
-      </c>
-      <c r="L17" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="30">
+        <v>2</v>
+      </c>
       <c r="M17" s="30">
-        <f>1.75</f>
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
@@ -2940,13 +2948,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -2967,32 +2975,34 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="62" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="63"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
       </c>
       <c r="I19" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J19" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="33">
+        <v>2</v>
+      </c>
       <c r="M19" s="33">
         <f>0.5*2</f>
         <v>1</v>
@@ -3005,19 +3015,23 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="52">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3032,17 +3046,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="63"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3069,13 +3083,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3096,15 +3110,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3126,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="L23" s="34">
         <f t="shared" ref="L23:Q23" si="5">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
@@ -3120,7 +3134,7 @@
       </c>
       <c r="M23" s="35">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>10.75</v>
       </c>
       <c r="N23" s="35">
         <f t="shared" si="5"/>
@@ -3148,13 +3162,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3198,17 +3212,17 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="58">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="53"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3226,13 +3240,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="54"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3250,23 +3264,23 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="62" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="63"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
       </c>
       <c r="I27" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J27" s="8">
         <v>3</v>
@@ -3287,13 +3301,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="58"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3301,7 +3315,7 @@
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="10">
-        <f t="shared" ref="K27:K34" si="8">SUM(L28:S28)</f>
+        <f t="shared" ref="K28:K34" si="8">SUM(L28:S28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="48"/>
@@ -3314,23 +3328,23 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="63"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
       </c>
       <c r="I29" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J29" s="8">
         <v>2</v>
@@ -3351,13 +3365,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="58"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3378,17 +3392,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="62" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="63"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3416,13 +3430,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="58"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3443,35 +3457,35 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
       </c>
       <c r="I33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J33" s="8">
         <v>3</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L33" s="30"/>
       <c r="M33" s="31">
-        <f>0.5*3</f>
-        <v>1.5</v>
+        <f>2*3</f>
+        <v>6</v>
       </c>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
@@ -3481,13 +3495,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="58"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -3508,17 +3522,17 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="58">
         <v>2</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="53"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3536,13 +3550,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="54"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3560,17 +3574,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="63"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3598,13 +3612,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="58"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3625,17 +3639,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="63"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3662,13 +3676,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="58"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -3689,17 +3703,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="63"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3726,13 +3740,13 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="58"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -3753,15 +3767,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="114"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="74"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +3783,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=1)*K$45:K$58)</f>
-        <v>18.5</v>
+        <v>14.75</v>
       </c>
       <c r="L43" s="35">
         <f t="shared" ref="L43:M43" si="9">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
@@ -3777,15 +3791,15 @@
       </c>
       <c r="M43" s="35">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="N43" s="35">
         <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="O43" s="35">
         <f t="shared" ref="O43:S43" si="10">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P43" s="35">
         <f t="shared" si="10"/>
@@ -3805,13 +3819,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3855,17 +3869,17 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67">
+      <c r="A45" s="58">
         <v>1</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3883,13 +3897,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="54"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3907,17 +3921,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="62" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="63"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3930,14 +3944,14 @@
       </c>
       <c r="K47" s="9">
         <f>SUM(L47:S47)</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L47" s="33"/>
-      <c r="M47" s="31">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="N47" s="31"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="31">
+        <f>0.75*5</f>
+        <v>3.75</v>
+      </c>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
       <c r="Q47" s="31"/>
@@ -3945,13 +3959,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="58"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -3963,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="55"/>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
@@ -3972,17 +3986,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="63"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="57"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -3995,13 +4009,10 @@
       </c>
       <c r="K49" s="9">
         <f>SUM(L49:S49)</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="M49" s="54"/>
       <c r="N49" s="31">
         <f>1*5</f>
         <v>5</v>
@@ -4013,13 +4024,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="58"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4040,17 +4051,17 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="58">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="63"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="53"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4068,13 +4079,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="54"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4092,17 +4103,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="69" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="63"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4119,24 +4130,24 @@
       </c>
       <c r="L53" s="33"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="31">
+      <c r="N53" s="31"/>
+      <c r="O53" s="31">
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="58"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4157,17 +4168,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="63"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4184,24 +4195,24 @@
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="31"/>
-      <c r="N55" s="31">
+      <c r="N55" s="31"/>
+      <c r="O55" s="31">
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="58"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="58"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4222,17 +4233,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="63"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="57"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4249,23 +4260,23 @@
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="31"/>
-      <c r="N57" s="31">
+      <c r="N57" s="31"/>
+      <c r="O57" s="31">
         <v>1</v>
       </c>
-      <c r="O57" s="31"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="58"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -4286,15 +4297,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4302,7 +4313,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L59" s="35">
         <f t="shared" ref="L59:N59" si="13">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
@@ -4314,15 +4325,15 @@
       </c>
       <c r="N59" s="35">
         <f t="shared" si="13"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O59" s="35">
         <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="P59" s="35">
         <f t="shared" ref="P59:S59" si="14">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Q59" s="35">
         <f t="shared" si="14"/>
@@ -4338,13 +4349,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4388,17 +4399,17 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67">
+      <c r="A61" s="58">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="63"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="53"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4416,13 +4427,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="54"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4440,17 +4451,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="62" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="63"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4463,17 +4474,14 @@
       </c>
       <c r="K63" s="9">
         <f t="shared" ref="K63:K68" si="16">SUM(L63:S63)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L63" s="33"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="31">
+      <c r="N63" s="31"/>
+      <c r="O63" s="31">
         <f>0.5*5</f>
         <v>2.5</v>
-      </c>
-      <c r="O63" s="31">
-        <f>1*5</f>
-        <v>5</v>
       </c>
       <c r="P63" s="31"/>
       <c r="Q63" s="31"/>
@@ -4481,13 +4489,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="58"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4508,17 +4516,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="63"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4540,19 +4548,18 @@
         <f>2*5</f>
         <v>10</v>
       </c>
-      <c r="P65" s="31"/>
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="58"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -4573,17 +4580,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="62" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="63"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="57"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4601,23 +4608,23 @@
       <c r="L67" s="33"/>
       <c r="M67" s="31"/>
       <c r="N67" s="31"/>
-      <c r="O67" s="31">
+      <c r="O67" s="31"/>
+      <c r="P67" s="31">
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="P67" s="31"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="58"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
       <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="58"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -4638,17 +4645,17 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67">
+      <c r="A69" s="58">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="62"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="53"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4666,13 +4673,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="54"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4690,17 +4697,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="63"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4728,13 +4735,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="58"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -4755,17 +4762,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="63"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4793,13 +4800,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
       <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="58"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -4820,17 +4827,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="63"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="57"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4858,13 +4865,13 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="68"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="58"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -4885,15 +4892,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="114"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="74"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4937,13 +4944,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -4987,17 +4994,17 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67">
+      <c r="A79" s="58">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="62"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="63"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="53"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5015,13 +5022,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="54"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5039,17 +5046,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="62" t="s">
         <v>46</v>
       </c>
       <c r="D81" s="63"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5080,13 +5087,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="58"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="61"/>
       <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="58"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5107,17 +5114,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D83" s="63"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5145,13 +5152,13 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
       <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="58"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -5172,15 +5179,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="114"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="74"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5224,13 +5231,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="75"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5274,17 +5281,17 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67">
+      <c r="A87" s="58">
         <v>1</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="62"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="53"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5302,13 +5309,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="54"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5326,17 +5333,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="62" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="63"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5364,13 +5371,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
-      <c r="B90" s="58"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="61"/>
       <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="58"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -5391,17 +5398,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="69" t="s">
         <v>50</v>
       </c>
       <c r="D91" s="63"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="57"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5429,13 +5436,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
-      <c r="B92" s="58"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
       <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="58"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5456,17 +5463,17 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67">
+      <c r="A93" s="58">
         <v>2</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="62"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="63"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="53"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5484,13 +5491,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="54"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5508,17 +5515,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="63"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="68"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5546,13 +5553,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
-      <c r="B96" s="58"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="61"/>
       <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="58"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5573,17 +5580,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="63"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="57"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5610,13 +5617,13 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
-      <c r="B98" s="58"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
       <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="58"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -5637,15 +5644,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="114"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="74"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5689,13 +5696,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5739,17 +5746,17 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67">
+      <c r="A101" s="58">
         <v>1</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="62"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="63"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="53"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5767,13 +5774,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="54"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5791,17 +5798,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="62" t="s">
         <v>52</v>
       </c>
       <c r="D103" s="63"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="68"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5829,13 +5836,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="58"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="61"/>
       <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="58"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -5856,23 +5863,23 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D105" s="63"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="57"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
       </c>
       <c r="I105" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J105" s="8">
         <v>3</v>
@@ -5894,13 +5901,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="58"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="58"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -5921,17 +5928,17 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67">
+      <c r="A107" s="58">
         <v>2</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="62"/>
+      <c r="C107" s="70"/>
       <c r="D107" s="63"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="53"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5949,13 +5956,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="54"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5973,17 +5980,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="63"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6011,13 +6018,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="58"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="58"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="61"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6038,17 +6045,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D111" s="63"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="57"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6076,13 +6083,13 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
-      <c r="B112" s="58"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="58"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -6118,95 +6125,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6231,272 +6351,151 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29">
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29 L66:S66 Q65:S65 L65:O65">
+    <cfRule type="expression" dxfId="13" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S76">
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6531,6 +6530,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6714,12 +6719,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6729,6 +6728,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6744,20 +6759,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート.xlsx
+++ b/15_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F34C1C-75F2-4F7F-B639-C39D4370DB28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462FBA4-61F0-493D-BA7A-F793B11AAB81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,6 +1533,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,194 +1578,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,10 +2311,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S76" sqref="S76"/>
+      <selection pane="bottomRight" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2333,120 +2333,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="84" t="s">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="114">
+      <c r="L1" s="81">
         <v>43984</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="114">
+      <c r="M1" s="82"/>
+      <c r="N1" s="81">
         <v>43985</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="114">
+      <c r="O1" s="82"/>
+      <c r="P1" s="81">
         <v>43986</v>
       </c>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="114">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81">
         <v>43987</v>
       </c>
-      <c r="S1" s="115"/>
+      <c r="S1" s="82"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="118" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="117"/>
-      <c r="N2" s="116" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="119" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="116" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="122" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="120" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="120" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="123" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="123"/>
+      <c r="S3" s="90"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="95"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2473,15 +2473,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f>SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
@@ -2505,11 +2505,11 @@
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="P5" s="27">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>12.75</v>
+        <v>14</v>
       </c>
       <c r="S5" s="27">
         <f t="shared" si="0"/>
@@ -2525,13 +2525,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="90"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2575,15 +2575,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2627,13 +2627,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2677,16 +2677,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58">
+      <c r="A9" s="70">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="56"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2705,12 +2705,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="57"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2729,17 +2729,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2766,12 +2766,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="61"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2793,17 +2793,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2830,12 +2830,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="61"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2857,16 +2857,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
+      <c r="A15" s="70">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="56"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2885,12 +2885,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="57"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2909,17 +2909,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="68"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2948,12 +2948,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="61"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -2975,17 +2975,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="68"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3015,12 +3015,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="61"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3046,17 +3046,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="68"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3083,12 +3083,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="61"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3110,15 +3110,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="117"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3162,13 +3162,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="75"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3212,16 +3212,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58">
+      <c r="A25" s="70">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="56"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3240,12 +3240,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="57"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3264,17 +3264,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="58"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="68"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3301,12 +3301,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="59"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="61"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3328,17 +3328,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="68"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3365,12 +3365,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="59"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="61"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3392,17 +3392,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="68"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3430,12 +3430,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="59"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="61"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="61"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3457,17 +3457,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="68"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3495,12 +3495,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="61"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3522,16 +3522,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="58">
+      <c r="A35" s="70">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="56"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3550,12 +3550,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="59"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="57"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3574,17 +3574,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="70"/>
+      <c r="B37" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="68"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3612,12 +3612,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="61"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3639,17 +3639,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="68"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3676,12 +3676,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="61"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3703,17 +3703,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="60" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="68"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3740,12 +3740,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="59"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="61"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3767,15 +3767,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="117"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=1)*K$45:K$58)</f>
-        <v>14.75</v>
+        <v>14.25</v>
       </c>
       <c r="L43" s="35">
         <f t="shared" ref="L43:M43" si="9">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="O43" s="35">
         <f t="shared" ref="O43:S43" si="10">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P43" s="35">
         <f t="shared" si="10"/>
@@ -3819,13 +3819,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="75"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="118"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3869,16 +3869,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="58">
+      <c r="A45" s="70">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="56"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3897,12 +3897,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="57"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3921,17 +3921,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3959,12 +3959,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="61"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3986,17 +3986,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="58"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="70"/>
+      <c r="B49" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="68"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="60"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4024,12 +4024,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="59"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="61"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="61"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4051,16 +4051,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58">
+      <c r="A51" s="70">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="56"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4079,12 +4079,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
       <c r="G52" s="57"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4103,17 +4103,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="58"/>
-      <c r="B53" s="60" t="s">
+      <c r="A53" s="70"/>
+      <c r="B53" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="68"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="60"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4141,12 +4141,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="59"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="61"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
       <c r="G54" s="61"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4168,17 +4168,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="58"/>
-      <c r="B55" s="60" t="s">
+      <c r="A55" s="70"/>
+      <c r="B55" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="68"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="60"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4206,12 +4206,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="61"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="61"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4233,17 +4233,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="58"/>
-      <c r="B57" s="60" t="s">
+      <c r="A57" s="70"/>
+      <c r="B57" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="68"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="60"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4256,13 +4256,13 @@
       </c>
       <c r="K57" s="9">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="31"/>
       <c r="N57" s="31"/>
       <c r="O57" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
@@ -4270,12 +4270,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="59"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="61"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4297,15 +4297,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="117"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="L59" s="35">
         <f t="shared" ref="L59:N59" si="13">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="O59" s="35">
         <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="P59" s="35">
         <f t="shared" ref="P59:S59" si="14">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
@@ -4349,13 +4349,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="75"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="118"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4399,16 +4399,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="58">
+      <c r="A61" s="70">
         <v>1</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="56"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4427,12 +4427,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="59"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
       <c r="G62" s="57"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4451,17 +4451,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58"/>
-      <c r="B63" s="60" t="s">
+      <c r="A63" s="70"/>
+      <c r="B63" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="68"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="60"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4489,12 +4489,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="61"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
       <c r="G64" s="61"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4516,17 +4516,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="60"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4539,26 +4539,26 @@
       </c>
       <c r="K65" s="9">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L65" s="33"/>
       <c r="M65" s="31"/>
       <c r="N65" s="31"/>
       <c r="O65" s="31">
-        <f>2*5</f>
-        <v>10</v>
+        <f>1.5*5</f>
+        <v>7.5</v>
       </c>
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="61"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4580,17 +4580,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="70"/>
+      <c r="B67" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4618,12 +4618,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="61"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4645,16 +4645,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58">
+      <c r="A69" s="70">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="56"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4673,12 +4673,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
       <c r="G70" s="57"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4697,17 +4697,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58"/>
-      <c r="B71" s="60" t="s">
+      <c r="A71" s="70"/>
+      <c r="B71" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="68"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="60"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4735,12 +4735,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="61"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="61"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4762,17 +4762,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4800,12 +4800,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
       <c r="G74" s="61"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4827,17 +4827,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4865,12 +4865,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
       <c r="G76" s="61"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4892,15 +4892,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="117"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="J77" s="20"/>
       <c r="K77" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=1)*K$79:K$84)</f>
-        <v>20</v>
+        <v>21.25</v>
       </c>
       <c r="L77" s="35">
         <f t="shared" ref="L77:P77" si="18">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="P77" s="35">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q77" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="R77" s="35">
         <f t="shared" ref="R77:S77" si="19">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S77" s="35">
         <f t="shared" si="19"/>
@@ -4944,13 +4944,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="75"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="118"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -4994,16 +4994,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="58">
+      <c r="A79" s="70">
         <v>1</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="56"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5022,12 +5022,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="59"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
       <c r="G80" s="57"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5046,17 +5046,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58"/>
-      <c r="B81" s="60" t="s">
+      <c r="A81" s="70"/>
+      <c r="B81" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="68"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="60"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5069,30 +5069,30 @@
       </c>
       <c r="K81" s="9">
         <f t="shared" ref="K81:K84" si="21">SUM(L81:S81)</f>
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31"/>
       <c r="P81" s="31">
-        <f>1*5</f>
-        <v>5</v>
+        <f>0.75*5</f>
+        <v>3.75</v>
       </c>
       <c r="Q81" s="31">
-        <f>2*5</f>
-        <v>10</v>
+        <f>2.5*5</f>
+        <v>12.5</v>
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="61"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
       <c r="G82" s="61"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5114,17 +5114,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="60"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5145,19 +5145,22 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
       <c r="Q83" s="31">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="R83" s="31"/>
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="R83" s="31">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
       <c r="G84" s="61"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5179,15 +5182,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="74"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="117"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5231,13 +5234,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="75"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="118"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5281,16 +5284,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="58">
+      <c r="A87" s="70">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="56"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5309,12 +5312,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="59"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
       <c r="G88" s="57"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5333,17 +5336,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="70"/>
+      <c r="B89" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="68"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="60"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5371,12 +5374,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="61"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="61"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5398,17 +5401,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="60"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5436,12 +5439,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
+      <c r="A92" s="71"/>
       <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="61"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5463,16 +5466,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58">
+      <c r="A93" s="70">
         <v>2</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="70"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="56"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5491,12 +5494,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
       <c r="G94" s="57"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5515,17 +5518,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58"/>
-      <c r="B95" s="60" t="s">
+      <c r="A95" s="70"/>
+      <c r="B95" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="68"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="60"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5553,12 +5556,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="61"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
       <c r="G96" s="61"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5580,17 +5583,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="70"/>
+      <c r="B97" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="60"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5617,12 +5620,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
       <c r="G98" s="61"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5644,15 +5647,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="117"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5660,7 +5663,7 @@
       <c r="J99" s="20"/>
       <c r="K99" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$101:K$112),2)=1)*K$101:K$112)</f>
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="L99" s="35">
         <f t="shared" ref="L99:R99" si="26">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
@@ -5688,7 +5691,7 @@
       </c>
       <c r="R99" s="35">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="S99" s="35">
         <f>SUMPRODUCT((MOD(ROW(S$101:S$112),2)=1)*S$101:S$112)</f>
@@ -5696,13 +5699,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="75"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="118"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5746,16 +5749,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="58">
+      <c r="A101" s="70">
         <v>1</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="70"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
       <c r="G101" s="56"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5774,12 +5777,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="59"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
       <c r="G102" s="57"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5798,17 +5801,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58"/>
-      <c r="B103" s="60" t="s">
+      <c r="A103" s="70"/>
+      <c r="B103" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="68"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="60"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5821,7 +5824,7 @@
       </c>
       <c r="K103" s="9">
         <f>SUM(L103:S103)</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L103" s="33"/>
       <c r="M103" s="31"/>
@@ -5830,18 +5833,18 @@
       <c r="P103" s="31"/>
       <c r="Q103" s="31"/>
       <c r="R103" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
+        <f>0.25*5</f>
+        <v>1.25</v>
       </c>
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="61"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
       <c r="G104" s="61"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5863,17 +5866,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="70"/>
+      <c r="B105" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="60"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5901,12 +5904,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
       <c r="G106" s="61"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5928,16 +5931,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58">
+      <c r="A107" s="70">
         <v>2</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
       <c r="G107" s="56"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5956,12 +5959,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
       <c r="G108" s="57"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5980,17 +5983,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58"/>
-      <c r="B109" s="60" t="s">
+      <c r="A109" s="70"/>
+      <c r="B109" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="68"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="60"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6018,12 +6021,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="61"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
       <c r="G110" s="61"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6045,17 +6048,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="70"/>
+      <c r="B111" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="60"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6083,12 +6086,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
+      <c r="A112" s="71"/>
       <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
       <c r="G112" s="61"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6125,19 +6128,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6162,284 +6430,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29 L66:S66 Q65:S65 L65:O65">
@@ -6530,12 +6533,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6719,6 +6716,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6728,22 +6731,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6759,4 +6746,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート.xlsx
+++ b/15_WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462FBA4-61F0-493D-BA7A-F793B11AAB81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865201B-B4C3-4BBF-A9E9-9749B92F4233}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -284,6 +284,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>浅川,川端,立石,舟橋,三上</t>
+  </si>
+  <si>
     <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,6 +296,10 @@
   </si>
   <si>
     <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川,川端,立石,舟橋,三上</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -318,6 +325,9 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟橋</t>
   </si>
   <si>
     <t>B.要求分析</t>
@@ -347,10 +357,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>浅川, 川端, 立石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ユースケース記述</t>
     <rPh sb="6" eb="8">
       <t>キジュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅川, 川端, </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -359,6 +377,9 @@
       <t>ヒキノウヨウキュウイチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川,立石</t>
   </si>
   <si>
     <t>d</t>
@@ -370,6 +391,9 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川端,舟橋,三上</t>
   </si>
   <si>
     <t>レビュー指摘修正＆内部レビュー</t>
@@ -410,6 +434,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>三上</t>
+  </si>
+  <si>
     <t>D.設計</t>
     <rPh sb="2" eb="4">
       <t>セッケイ</t>
@@ -422,6 +449,9 @@
       <t>トウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川</t>
   </si>
   <si>
     <t>E.実装</t>
@@ -481,6 +511,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>立石</t>
+  </si>
+  <si>
     <t>G.振り返り</t>
     <rPh sb="2" eb="3">
       <t>フ</t>
@@ -511,40 +544,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅川,川端,立石,舟橋,三上</t>
-  </si>
-  <si>
-    <t>舟橋</t>
-  </si>
-  <si>
-    <t>三上</t>
-  </si>
-  <si>
-    <t>浅川</t>
-  </si>
-  <si>
-    <t>浅川,立石</t>
-  </si>
-  <si>
-    <t>立石</t>
-  </si>
-  <si>
-    <t>川端,舟橋,三上</t>
-  </si>
-  <si>
     <t>立石,舟橋,三上</t>
-  </si>
-  <si>
-    <t>浅川,川端,立石,舟橋,三上</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅川, 川端, 立石</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">浅川, 川端, </t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1515,34 +1515,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,31 +1581,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,6 +1611,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,105 +1730,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,10 +2311,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R105" sqref="R105"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2333,120 +2333,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="97" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81">
+      <c r="L1" s="114">
         <v>43984</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="81">
+      <c r="M1" s="115"/>
+      <c r="N1" s="114">
         <v>43985</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="81">
+      <c r="O1" s="115"/>
+      <c r="P1" s="114">
         <v>43986</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="81">
+      <c r="Q1" s="115"/>
+      <c r="R1" s="114">
         <v>43987</v>
       </c>
-      <c r="S1" s="82"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="85" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="83" t="s">
+      <c r="Q2" s="117"/>
+      <c r="R2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="117"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="89" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="87" t="s">
+      <c r="O3" s="121"/>
+      <c r="P3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="121"/>
+      <c r="R3" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="123"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2473,15 +2473,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f>SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="M5" s="27">
         <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
@@ -2525,13 +2525,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="122"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2539,15 +2539,15 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:S6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
@@ -2575,15 +2575,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="114"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="14">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M7" s="28">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="2"/>
@@ -2627,13 +2627,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="115"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2641,15 +2641,15 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N8" s="29">
         <f t="shared" si="3"/>
@@ -2677,16 +2677,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="58">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="56"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2705,12 +2705,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="57"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2729,23 +2729,23 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="60"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
       </c>
       <c r="I11" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J11" s="8">
         <v>5</v>
@@ -2766,25 +2766,29 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="61"/>
-      <c r="H12" s="52" t="str">
+      <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="10">
         <f>SUM(L12:S12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="32"/>
+        <v>7.5</v>
+      </c>
+      <c r="L12" s="41">
+        <v>5</v>
+      </c>
+      <c r="M12" s="32">
+        <v>2.5</v>
+      </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -2793,23 +2797,23 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="64" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
       </c>
       <c r="I13" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J13" s="8">
         <v>5</v>
@@ -2830,25 +2834,29 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="61"/>
-      <c r="H14" s="52" t="str">
+      <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="32"/>
+        <v>7.5</v>
+      </c>
+      <c r="L14" s="41">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32">
+        <v>2.5</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -2857,16 +2865,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70">
+      <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="56"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2885,12 +2893,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="57"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2909,23 +2917,23 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
       </c>
       <c r="I17" s="8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
@@ -2948,25 +2956,29 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="52" t="str">
+      <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="41">
+        <v>2</v>
+      </c>
+      <c r="M18" s="32">
+        <v>2</v>
+      </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -2975,37 +2987,37 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
       </c>
       <c r="I19" s="8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="J19" s="8">
         <v>5</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L19" s="33">
         <v>2</v>
       </c>
       <c r="M19" s="33">
-        <f>0.5*2</f>
-        <v>1</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
@@ -3015,29 +3027,33 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="61"/>
-      <c r="H20" s="52" t="str">
+      <c r="H20" s="54" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
       </c>
-      <c r="I20" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="52">
+      <c r="I20" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="54">
         <v>5</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="41">
+        <v>2</v>
+      </c>
+      <c r="M20" s="32">
+        <v>3</v>
+      </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
@@ -3046,34 +3062,34 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="60"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
       </c>
       <c r="I21" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
       </c>
       <c r="K21" s="9">
         <f>SUM(M21:S21)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21" s="33">
-        <f>0.5*2</f>
-        <v>1</v>
+        <f>0.5*1</f>
+        <v>0.5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
@@ -3083,25 +3099,29 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="61"/>
-      <c r="H22" s="52" t="str">
+      <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="54"/>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
+      <c r="M22" s="32">
+        <v>1</v>
+      </c>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -3110,15 +3130,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="117"/>
+      <c r="A23" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3162,13 +3182,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="118"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3176,7 +3196,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" ref="L24:S24" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
@@ -3184,11 +3204,11 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" si="7"/>
@@ -3212,16 +3232,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70">
+      <c r="A25" s="58">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="56"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3240,12 +3260,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="57"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3264,23 +3284,23 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="60"/>
+      <c r="C27" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
       </c>
       <c r="I27" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J27" s="8">
         <v>3</v>
@@ -3301,25 +3321,31 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="61"/>
-      <c r="H28" s="52" t="str">
+      <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="55">
+        <v>3</v>
+      </c>
       <c r="K28" s="10">
         <f t="shared" ref="K28:K34" si="8">SUM(L28:S28)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="M28" s="49">
+        <v>2.25</v>
+      </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -3328,23 +3354,23 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="60"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
       </c>
       <c r="I29" s="8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J29" s="8">
         <v>2</v>
@@ -3365,26 +3391,35 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="61"/>
-      <c r="H30" s="52" t="str">
+      <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="I30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="55">
+        <v>2</v>
+      </c>
       <c r="K30" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="32"/>
+      <c r="M30" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="32">
+        <f>0.25*2</f>
+        <v>0.5</v>
+      </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -3392,23 +3427,23 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="60"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
       </c>
       <c r="I31" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
@@ -3430,26 +3465,29 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="61"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="61"/>
-      <c r="H32" s="52" t="str">
+      <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="48"/>
       <c r="M32" s="49"/>
-      <c r="N32" s="32"/>
+      <c r="N32" s="32">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
@@ -3457,23 +3495,23 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="60"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
       </c>
       <c r="I33" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J33" s="8">
         <v>3</v>
@@ -3495,26 +3533,29 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="61"/>
-      <c r="H34" s="52" t="str">
+      <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L34" s="41"/>
       <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="N34" s="32">
+        <f>1.5*3</f>
+        <v>4.5</v>
+      </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
@@ -3522,16 +3563,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70">
+      <c r="A35" s="58">
         <v>2</v>
       </c>
-      <c r="B35" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="B35" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="56"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3550,12 +3591,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="57"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3574,25 +3615,25 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
       </c>
-      <c r="I37" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="52">
+      <c r="I37" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="54">
         <v>5</v>
       </c>
       <c r="K37" s="9">
@@ -3612,26 +3653,29 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="61"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="61"/>
-      <c r="H38" s="52" t="str">
+      <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="50"/>
+      <c r="N38" s="50">
+        <f>0.15*5</f>
+        <v>0.75</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -3639,23 +3683,23 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
       </c>
       <c r="I39" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J39" s="8">
         <v>5</v>
@@ -3676,26 +3720,29 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="61"/>
-      <c r="H40" s="52" t="str">
+      <c r="H40" s="54" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="48"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="32">
+        <f>0.25*5</f>
+        <v>1.25</v>
+      </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
@@ -3703,23 +3750,23 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="60"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="63"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
       </c>
       <c r="I41" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -3740,19 +3787,19 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="61"/>
-      <c r="H42" s="52" t="str">
+      <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="10">
         <f>SUM(L42:M42)</f>
         <v>0</v>
@@ -3767,15 +3814,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="117"/>
+      <c r="A43" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="74"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3819,13 +3866,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="118"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3869,16 +3916,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="70">
+      <c r="A45" s="58">
         <v>1</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="56"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3897,12 +3944,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="57"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3921,23 +3968,23 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
       </c>
       <c r="I47" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J47" s="8">
         <v>5</v>
@@ -3947,7 +3994,7 @@
         <v>3.75</v>
       </c>
       <c r="L47" s="33"/>
-      <c r="M47" s="54"/>
+      <c r="M47" s="52"/>
       <c r="N47" s="31">
         <f>0.75*5</f>
         <v>3.75</v>
@@ -3959,25 +4006,25 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="61"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="61"/>
-      <c r="H48" s="52" t="str">
+      <c r="H48" s="54" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="55"/>
+      <c r="M48" s="53"/>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
@@ -3986,23 +4033,23 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="60"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
       </c>
       <c r="I49" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -4012,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="54"/>
+      <c r="M49" s="52"/>
       <c r="N49" s="31">
         <f>1*5</f>
         <v>5</v>
@@ -4024,19 +4071,19 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="61"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="61"/>
-      <c r="H50" s="52" t="str">
+      <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
         <v>0</v>
@@ -4051,16 +4098,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="58">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
+      <c r="B51" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="56"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4079,12 +4126,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
       <c r="G52" s="57"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4103,23 +4150,23 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="72" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="60"/>
+      <c r="C53" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="63"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
       </c>
       <c r="I53" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J53" s="8">
         <v>5</v>
@@ -4141,19 +4188,19 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="61"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="61"/>
-      <c r="H54" s="52" t="str">
+      <c r="H54" s="54" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4168,23 +4215,23 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="60"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="63"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
       </c>
       <c r="I55" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -4206,19 +4253,19 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="61"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="61"/>
-      <c r="H56" s="52" t="str">
+      <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4233,23 +4280,23 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="60"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
       </c>
       <c r="I57" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J57" s="8">
         <v>1</v>
@@ -4270,19 +4317,19 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="61"/>
-      <c r="H58" s="52" t="str">
+      <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="10">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4297,15 +4344,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="117"/>
+      <c r="A59" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4349,13 +4396,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="118"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4399,16 +4446,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="70">
+      <c r="A61" s="58">
         <v>1</v>
       </c>
-      <c r="B61" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
+      <c r="B61" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
       <c r="G61" s="56"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4427,12 +4474,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="57"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4451,23 +4498,23 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="72" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="66"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="60"/>
+      <c r="C63" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
       </c>
       <c r="I63" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J63" s="8">
         <v>5</v>
@@ -4489,19 +4536,19 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="61"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
       <c r="G64" s="61"/>
-      <c r="H64" s="52" t="str">
+      <c r="H64" s="54" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4516,23 +4563,23 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="60"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="63"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
       </c>
       <c r="I65" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J65" s="8">
         <v>5</v>
@@ -4553,19 +4600,19 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="61"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="61"/>
-      <c r="H66" s="52" t="str">
+      <c r="H66" s="54" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4580,23 +4627,23 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="66"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="60"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="63"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
       </c>
       <c r="I67" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J67" s="8">
         <v>5</v>
@@ -4618,19 +4665,19 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="71"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="61"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="61"/>
-      <c r="H68" s="52" t="str">
+      <c r="H68" s="54" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4645,16 +4692,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="70">
+      <c r="A69" s="58">
         <v>2</v>
       </c>
-      <c r="B69" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
+      <c r="B69" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="70"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
       <c r="G69" s="56"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4673,12 +4720,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="57"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4697,23 +4744,23 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="66"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="60"/>
+      <c r="C71" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="63"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
       </c>
       <c r="I71" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J71" s="8">
         <v>5</v>
@@ -4735,19 +4782,19 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="61"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="61"/>
-      <c r="H72" s="52" t="str">
+      <c r="H72" s="54" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -4762,23 +4809,23 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="66"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="60"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
       </c>
       <c r="I73" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J73" s="8">
         <v>5</v>
@@ -4800,19 +4847,19 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="61"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="52" t="str">
+      <c r="H74" s="54" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -4827,23 +4874,23 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="60"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="63"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
       </c>
       <c r="I75" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J75" s="8">
         <v>1</v>
@@ -4865,19 +4912,19 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
       <c r="G76" s="61"/>
-      <c r="H76" s="52" t="str">
+      <c r="H76" s="54" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
       <c r="K76" s="10">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -4892,15 +4939,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="117"/>
+      <c r="A77" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="74"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4944,13 +4991,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="118"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -4994,16 +5041,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="70">
+      <c r="A79" s="58">
         <v>1</v>
       </c>
-      <c r="B79" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
+      <c r="B79" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="70"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
       <c r="G79" s="56"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5022,12 +5069,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
       <c r="G80" s="57"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5046,23 +5093,23 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="66"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="60"/>
+      <c r="C81" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
       </c>
       <c r="I81" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J81" s="8">
         <v>5</v>
@@ -5087,19 +5134,19 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="61"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
       <c r="G82" s="61"/>
-      <c r="H82" s="52" t="str">
+      <c r="H82" s="54" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
       <c r="K82" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -5114,23 +5161,23 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="66"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="60"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
       </c>
       <c r="I83" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J83" s="8">
         <v>5</v>
@@ -5155,19 +5202,19 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
       <c r="G84" s="61"/>
-      <c r="H84" s="52" t="str">
+      <c r="H84" s="54" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
       </c>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
       <c r="K84" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -5182,15 +5229,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="117"/>
+      <c r="A85" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="74"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5234,13 +5281,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="118"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="75"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5284,16 +5331,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="70">
+      <c r="A87" s="58">
         <v>1</v>
       </c>
-      <c r="B87" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="65"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
+      <c r="B87" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="70"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
       <c r="G87" s="56"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5312,12 +5359,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
       <c r="G88" s="57"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5336,23 +5383,23 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="60"/>
+      <c r="C89" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="63"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
       </c>
       <c r="I89" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J89" s="8">
         <v>5</v>
@@ -5374,19 +5421,19 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="61"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
       <c r="G90" s="61"/>
-      <c r="H90" s="52" t="str">
+      <c r="H90" s="54" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
       </c>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
       <c r="K90" s="10">
         <f>SUM(L90:S90)</f>
         <v>0</v>
@@ -5401,23 +5448,23 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="60"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="63"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
       </c>
       <c r="I91" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J91" s="8">
         <v>1</v>
@@ -5439,19 +5486,19 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="61"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
       <c r="G92" s="61"/>
-      <c r="H92" s="52" t="str">
+      <c r="H92" s="54" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
       </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
       <c r="K92" s="10">
         <f>SUM(L92:S92)</f>
         <v>0</v>
@@ -5466,16 +5513,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="70">
+      <c r="A93" s="58">
         <v>2</v>
       </c>
-      <c r="B93" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
+      <c r="B93" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="70"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
       <c r="G93" s="56"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5494,12 +5541,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
       <c r="G94" s="57"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5518,23 +5565,23 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
-      <c r="B95" s="72" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="60"/>
+      <c r="C95" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="63"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="68"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
       </c>
       <c r="I95" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J95" s="8">
         <v>5</v>
@@ -5556,19 +5603,19 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="61"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
       <c r="G96" s="61"/>
-      <c r="H96" s="52" t="str">
+      <c r="H96" s="54" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
       </c>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
       <c r="K96" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -5583,23 +5630,23 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
-      <c r="B97" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="60"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
       </c>
       <c r="I97" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
@@ -5620,19 +5667,19 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="61"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
       <c r="G98" s="61"/>
-      <c r="H98" s="52" t="str">
+      <c r="H98" s="54" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
       </c>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
       <c r="K98" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -5647,15 +5694,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="117"/>
+      <c r="A99" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="74"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5699,13 +5746,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="118"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5749,16 +5796,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="70">
+      <c r="A101" s="58">
         <v>1</v>
       </c>
-      <c r="B101" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
+      <c r="B101" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="70"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
       <c r="G101" s="56"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5777,12 +5824,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="71"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
       <c r="G102" s="57"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5801,23 +5848,23 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70"/>
-      <c r="B103" s="72" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="60"/>
+      <c r="C103" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="63"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="68"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
       </c>
       <c r="I103" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J103" s="8">
         <v>5</v>
@@ -5839,19 +5886,19 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="71"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="61"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
       <c r="G104" s="61"/>
-      <c r="H104" s="52" t="str">
+      <c r="H104" s="54" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
       <c r="K104" s="10">
         <f>SUM(L104:S104)</f>
         <v>0</v>
@@ -5866,23 +5913,23 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="60"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="63"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
       </c>
       <c r="I105" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J105" s="8">
         <v>3</v>
@@ -5904,19 +5951,19 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="71"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
       <c r="G106" s="61"/>
-      <c r="H106" s="52" t="str">
+      <c r="H106" s="54" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
       </c>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
       <c r="K106" s="10">
         <f>SUM(L106:S106)</f>
         <v>0</v>
@@ -5931,16 +5978,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70">
+      <c r="A107" s="58">
         <v>2</v>
       </c>
-      <c r="B107" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
+      <c r="B107" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="70"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
       <c r="G107" s="56"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5959,12 +6006,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="71"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
       <c r="G108" s="57"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5983,23 +6030,23 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="72" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" s="66"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="60"/>
+      <c r="C109" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="63"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
       </c>
       <c r="I109" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J109" s="8">
         <v>5</v>
@@ -6021,19 +6068,19 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="71"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="61"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
       <c r="G110" s="61"/>
-      <c r="H110" s="52" t="str">
+      <c r="H110" s="54" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
       </c>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
       <c r="K110" s="10">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -6048,23 +6095,23 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="66"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="60"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="63"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
       </c>
       <c r="I111" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J111" s="8">
         <v>1</v>
@@ -6086,19 +6133,19 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="71"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="61"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
       <c r="G112" s="61"/>
-      <c r="H112" s="52" t="str">
+      <c r="H112" s="54" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
       </c>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
       <c r="K112" s="10">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -6128,95 +6175,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6241,208 +6401,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29 L66:S66 Q65:S65 L65:O65">
@@ -6533,6 +6580,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6716,12 +6769,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6731,6 +6778,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6746,20 +6802,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>